--- a/biology/Botanique/Lupinus_angustifolius/Lupinus_angustifolius.xlsx
+++ b/biology/Botanique/Lupinus_angustifolius/Lupinus_angustifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lupinus angustifolius, le lupin à feuilles étroites ou lupin bleu, est une espèce de lupins plus connue sous le nom de lupin bleu ou lupin réticulé.
-La floraison a lieu d'avril à juin[1].
+La floraison a lieu d'avril à juin.
 </t>
         </is>
       </c>
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culinaires
-Le lupin bleu contient très peu d'alcaloïdes, le rendant ainsi propre à la consommation humaine.
-Il est utilisé pour la préparation d'un lait végétal au goût neutre, ne présentant pas d'allergènes, et dont la culture est possible sous les latitudes européennes[2].
+          <t>Culinaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lupin bleu contient très peu d'alcaloïdes, le rendant ainsi propre à la consommation humaine.
+Il est utilisé pour la préparation d'un lait végétal au goût neutre, ne présentant pas d'allergènes, et dont la culture est possible sous les latitudes européennes.
 </t>
         </is>
       </c>
